--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="181"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -91,59 +91,63 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>STR_allianceRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.2500dragoncoins</t>
+  </si>
+  <si>
+    <t>com.dragonfall.5500dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.12000dragoncoins</t>
+  </si>
+  <si>
+    <t>com.dragonfall.35000dragoncoins</t>
+  </si>
+  <si>
+    <t>com.dragonfall.80000dragoncoins</t>
+  </si>
+  <si>
     <t>STR_rewards</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>STR_allianceRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dragonfall.2500dragoncoins</t>
-  </si>
-  <si>
-    <t>com.dragonfall.5500dragoncoins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dragonfall.12000dragoncoins</t>
-  </si>
-  <si>
-    <t>com.dragonfall.35000dragoncoins</t>
-  </si>
-  <si>
-    <t>com.dragonfall.80000dragoncoins</t>
-  </si>
-  <si>
-    <t>special:dragonChest_1:5,resource:woodClass_4:2,resource:stoneClass_4:2,resource:ironClass_4:2,resource:foodClass_4:2,resource:coinClass_4:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2</t>
-  </si>
-  <si>
-    <t>special:dragonChest_2:2,special:dragonChest_1:5,resource:woodClass_5:2,resource:stoneClass_5:2,resource:ironClass_5:2,resource:foodClass_5:2,resource:coinClass_5:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2</t>
-  </si>
-  <si>
-    <t>special:dragonChest_2:5,special:dragonChest_1:10,resource:woodClass_6:2,resource:stoneClass_6:2,resource:ironClass_6:2,resource:foodClass_6:2,resource:coinClass_6:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2,speedup:speedup_6:2</t>
-  </si>
-  <si>
-    <t>special:dragonChest_3:5,special:dragonChest_2:5,special:dragonChest_1:20,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:coinClass_6:5,speedup:speedup_2:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5</t>
-  </si>
-  <si>
-    <t>special:dragonChest_3:10,special:dragonChest_2:20,special:dragonChest_1:30,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5</t>
+    <t>resource:gemClass_3:80,special:redbag_3:30,special:redbag_2:30,special:redbag_1:30,special:dragonChest_3:10,special:dragonChest_2:20,special:dragonChest_1:30,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:,buff:siegeAtkBonus_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2:55,special:redbag_2:5,special:redbag_1:5,special:dragonChest_2:2,special:dragonChest_1:5,resource:woodClass_5:2,resource:stoneClass_5:2,resource:ironClass_5:2,resource:foodClass_5:2,resource:coinClass_5:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_3:12,special:redbag_3:5,special:redbag_2:5,special:redbag_1:5,special:dragonChest_2:5,special:dragonChest_1:10,resource:woodClass_6:2,resource:stoneClass_6:2,resource:ironClass_6:2,resource:foodClass_6:2,resource:coinClass_6:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2,speedup:speedup_6:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_3:35,special:redbag_3:15,special:redbag_2:15,special:redbag_1:15,special:dragonChest_3:5,special:dragonChest_2:5,special:dragonChest_1:20,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:coinClass_6:5,speedup:speedup_2:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2:25,special:redbag_1:5,special:dragonChest_1:5,resource:woodClass_4:2,resource:stoneClass_4:2,resource:ironClass_4:2,resource:foodClass_4:2,resource:coinClass_4:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +883,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,7 +913,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="586">
@@ -1947,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1984,14 +1991,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="58" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1999,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6">
         <v>4.99</v>
@@ -2011,10 +2018,10 @@
         <v>2500</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="65" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2022,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6">
         <v>9.99</v>
@@ -2037,10 +2044,10 @@
         <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="63" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2048,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6">
         <v>19.989999999999998</v>
@@ -2063,10 +2070,10 @@
         <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="57" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2074,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6">
         <v>49.99</v>
@@ -2089,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="74" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6">
         <v>99.99</v>
@@ -2111,11 +2118,11 @@
       <c r="F6" s="9">
         <v>80000</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>31</v>
+      <c r="G6" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="181"/>
+    <workbookView xWindow="1820" yWindow="620" windowWidth="25600" windowHeight="16060" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -131,15 +131,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:gemClass_3:80,special:redbag_3:30,special:redbag_2:30,special:redbag_1:30,special:dragonChest_3:10,special:dragonChest_2:20,special:dragonChest_1:30,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:,buff:siegeAtkBonus_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resource:gemClass_2:55,special:redbag_2:5,special:redbag_1:5,special:dragonChest_2:2,special:dragonChest_1:5,resource:woodClass_5:2,resource:stoneClass_5:2,resource:ironClass_5:2,resource:foodClass_5:2,resource:coinClass_5:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>resource:gemClass_3:12,special:redbag_3:5,special:redbag_2:5,special:redbag_1:5,special:dragonChest_2:5,special:dragonChest_1:10,resource:woodClass_6:2,resource:stoneClass_6:2,resource:ironClass_6:2,resource:foodClass_6:2,resource:coinClass_6:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2,speedup:speedup_6:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_3:80,special:redbag_3:30,special:redbag_2:30,special:redbag_1:30,special:dragonChest_3:10,special:dragonChest_2:20,special:dragonChest_1:30,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -883,7 +883,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,9 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="586">
@@ -1955,7 +1952,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2041,7 +2038,7 @@
         <v>5500</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>17</v>
@@ -2067,7 +2064,7 @@
         <v>12000</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>18</v>
@@ -2118,8 +2115,8 @@
       <c r="F6" s="9">
         <v>80000</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>27</v>
+      <c r="G6" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>20</v>

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="620" windowWidth="25600" windowHeight="16060" tabRatio="181"/>
+    <workbookView xWindow="-940" yWindow="620" windowWidth="28360" windowHeight="16060" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -95,22 +95,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:chest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>com.dragonfall.2500dragoncoins</t>
   </si>
   <si>
@@ -131,23 +115,39 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:gemClass_2:55,special:redbag_2:5,special:redbag_1:5,special:dragonChest_2:2,special:dragonChest_1:5,resource:woodClass_5:2,resource:stoneClass_5:2,resource:ironClass_5:2,resource:foodClass_5:2,resource:coinClass_5:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_3:12,special:redbag_3:5,special:redbag_2:5,special:redbag_1:5,special:dragonChest_2:5,special:dragonChest_1:10,resource:woodClass_6:2,resource:stoneClass_6:2,resource:ironClass_6:2,resource:foodClass_6:2,resource:coinClass_6:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2,speedup:speedup_6:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_3:80,special:redbag_3:30,special:redbag_2:30,special:redbag_1:30,special:dragonChest_3:10,special:dragonChest_2:20,special:dragonChest_1:30,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_3:35,special:redbag_3:15,special:redbag_2:15,special:redbag_1:15,special:dragonChest_3:5,special:dragonChest_2:5,special:dragonChest_1:20,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:coinClass_6:5,speedup:speedup_2:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_2:25,special:redbag_1:5,special:dragonChest_1:5,resource:woodClass_4:2,resource:stoneClass_4:2,resource:ironClass_4:2,resource:foodClass_4:2,resource:coinClass_4:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2</t>
+    <t>items:gemClass_2:25,items:redbag_1:5,items:dragonChest_1:5,items:woodClass_4:2,items:stoneClass_4:2,items:ironClass_4:2,items:foodClass_4:2,items:coinClass_4:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:55,items:redbag_2:5,items:redbag_1:5,items:dragonChest_2:2,items:dragonChest_1:5,items:woodClass_5:2,items:stoneClass_5:2,items:ironClass_5:2,items:foodClass_5:2,items:coinClass_5:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2,items:speedup_5:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_3:12,items:redbag_3:5,items:redbag_2:5,items:redbag_1:5,items:dragonChest_2:5,items:dragonChest_1:10,items:woodClass_6:2,items:stoneClass_6:2,items:ironClass_6:2,items:foodClass_6:2,items:coinClass_6:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2,items:speedup_5:2,items:speedup_6:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_3:35,items:redbag_3:15,items:redbag_2:15,items:redbag_1:15,items:dragonChest_3:5,items:dragonChest_2:5,items:dragonChest_1:20,items:woodClass_6:5,items:stoneClass_6:5,items:ironClass_6:5,items:foodClass_6:5,items:coinClass_6:5,items:speedup_2:5,items:speedup_3:5,items:speedup_4:5,items:speedup_5:5,items:speedup_6:5,items:woodBonus_1:5,items:stoneBonus_1:5,items:ironBonus_1:5,items:foodBonus_1:5,items:coinBonus_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_3:80,items:redbag_3:30,items:redbag_2:30,items:redbag_1:30,items:dragonChest_3:10,items:dragonChest_2:20,items:dragonChest_1:30,items:woodClass_7:5,items:stoneClass_7:5,items:ironClass_7:5,items:foodClass_7:5,items:coinClass_7:5,items:speedup_3:5,items:speedup_4:5,items:speedup_5:5,items:speedup_6:5,items:speedup_7:5,items:woodBonus_1:5,items:stoneBonus_1:5,items:ironBonus_1:5,items:foodBonus_1:5,items:coinBonus_1:5,items:unitHpBonus_1:5,items:infantryAtkBonus_1:5,items:archerAtkBonus_1:5,items:cavalryAtkBonus_1:5,items:siegeAtkBonus_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_4:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1988,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>16</v>
@@ -2003,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6">
         <v>4.99</v>
@@ -2015,7 +2015,7 @@
         <v>2500</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="65" customHeight="1">
@@ -2026,7 +2026,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
         <v>9.99</v>
@@ -2038,10 +2038,10 @@
         <v>5500</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="63" customHeight="1">
@@ -2052,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6">
         <v>19.989999999999998</v>
@@ -2064,10 +2064,10 @@
         <v>12000</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="57" customHeight="1">
@@ -2078,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6">
         <v>49.99</v>
@@ -2090,10 +2090,10 @@
         <v>35000</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="74" customHeight="1">
@@ -2104,7 +2104,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6">
         <v>99.99</v>
@@ -2116,10 +2116,10 @@
         <v>80000</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-940" yWindow="620" windowWidth="28360" windowHeight="16060" tabRatio="181"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="31920" windowHeight="20460" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -115,26 +115,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:gemClass_2:25,items:redbag_1:5,items:dragonChest_1:5,items:woodClass_4:2,items:stoneClass_4:2,items:ironClass_4:2,items:foodClass_4:2,items:coinClass_4:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:55,items:redbag_2:5,items:redbag_1:5,items:dragonChest_2:2,items:dragonChest_1:5,items:woodClass_5:2,items:stoneClass_5:2,items:ironClass_5:2,items:foodClass_5:2,items:coinClass_5:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2,items:speedup_5:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_3:12,items:redbag_3:5,items:redbag_2:5,items:redbag_1:5,items:dragonChest_2:5,items:dragonChest_1:10,items:woodClass_6:2,items:stoneClass_6:2,items:ironClass_6:2,items:foodClass_6:2,items:coinClass_6:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2,items:speedup_5:2,items:speedup_6:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_3:35,items:redbag_3:15,items:redbag_2:15,items:redbag_1:15,items:dragonChest_3:5,items:dragonChest_2:5,items:dragonChest_1:20,items:woodClass_6:5,items:stoneClass_6:5,items:ironClass_6:5,items:foodClass_6:5,items:coinClass_6:5,items:speedup_2:5,items:speedup_3:5,items:speedup_4:5,items:speedup_5:5,items:speedup_6:5,items:woodBonus_1:5,items:stoneBonus_1:5,items:ironBonus_1:5,items:foodBonus_1:5,items:coinBonus_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_3:80,items:redbag_3:30,items:redbag_2:30,items:redbag_1:30,items:dragonChest_3:10,items:dragonChest_2:20,items:dragonChest_1:30,items:woodClass_7:5,items:stoneClass_7:5,items:ironClass_7:5,items:foodClass_7:5,items:coinClass_7:5,items:speedup_3:5,items:speedup_4:5,items:speedup_5:5,items:speedup_6:5,items:speedup_7:5,items:woodBonus_1:5,items:stoneBonus_1:5,items:ironBonus_1:5,items:foodBonus_1:5,items:coinBonus_1:5,items:unitHpBonus_1:5,items:infantryAtkBonus_1:5,items:archerAtkBonus_1:5,items:cavalryAtkBonus_1:5,items:siegeAtkBonus_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:chest_3:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -148,6 +128,26 @@
   </si>
   <si>
     <t>items:chest_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_1:5,items:woodClass_4:2,items:stoneClass_4:2,items:ironClass_4:2,items:foodClass_4:2,items:coinClass_4:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:5,items:dragonChest_1:10,items:woodClass_6:2,items:stoneClass_6:2,items:ironClass_6:2,items:foodClass_6:2,items:coinClass_6:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2,items:speedup_5:2,items:speedup_6:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:2,items:dragonChest_1:5,items:woodClass_5:2,items:stoneClass_5:2,items:ironClass_5:2,items:foodClass_5:2,items:coinClass_5:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2,items:speedup_5:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:5,items:dragonChest_2:5,items:dragonChest_1:20,items:woodClass_6:5,items:stoneClass_6:5,items:ironClass_6:5,items:foodClass_6:5,items:coinClass_6:5,items:speedup_2:5,items:speedup_3:5,items:speedup_4:5,items:speedup_5:5,items:speedup_6:5,items:woodBonus_1:5,items:stoneBonus_1:5,items:ironBonus_1:5,items:foodBonus_1:5,items:coinBonus_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:10,items:dragonChest_2:20,items:dragonChest_1:30,items:woodClass_7:5,items:stoneClass_7:5,items:ironClass_7:5,items:foodClass_7:5,items:coinClass_7:5,items:speedup_3:5,items:speedup_4:5,items:speedup_5:5,items:speedup_6:5,items:speedup_7:5,items:woodBonus_1:5,items:stoneBonus_1:5,items:ironBonus_1:5,items:foodBonus_1:5,items:coinBonus_1:5,items:unitHpBonus_1:5,items:infantryAtkBonus_1:5,items:archerAtkBonus_1:5,items:cavalryAtkBonus_1:5,items:siegeAtkBonus_1:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2015,7 +2015,7 @@
         <v>2500</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="65" customHeight="1">
@@ -2038,10 +2038,10 @@
         <v>5500</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="63" customHeight="1">
@@ -2064,10 +2064,10 @@
         <v>12000</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="57" customHeight="1">
@@ -2090,10 +2090,10 @@
         <v>35000</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="74" customHeight="1">
@@ -2116,10 +2116,10 @@
         <v>80000</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="31920" windowHeight="20460" tabRatio="181"/>
+    <workbookView xWindow="3320" yWindow="0" windowWidth="31920" windowHeight="20460" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -291,7 +291,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="586">
+  <cellStyleXfs count="588">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -306,6 +306,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -916,7 +918,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="586">
+  <cellStyles count="588">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1212,6 +1214,7 @@
     <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1500,6 +1503,7 @@
     <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1951,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2011,8 +2015,8 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8">
-        <v>2500</v>
+      <c r="F2" s="9">
+        <v>5000</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>27</v>
@@ -2034,8 +2038,8 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9">
-        <v>5500</v>
+      <c r="F3" s="8">
+        <v>11000</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>29</v>
@@ -2060,8 +2064,8 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8">
-        <v>12000</v>
+      <c r="F4" s="9">
+        <v>24000</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>28</v>
@@ -2087,7 +2091,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="9">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>30</v>
@@ -2113,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="9">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>31</v>

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="0" windowWidth="31920" windowHeight="20460" tabRatio="181"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="31920" windowHeight="20460" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -291,7 +291,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="588">
+  <cellStyleXfs count="586">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -306,8 +306,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -918,7 +916,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="588">
+  <cellStyles count="586">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1214,7 +1212,6 @@
     <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1503,7 +1500,6 @@
     <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1955,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2015,8 +2011,8 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9">
-        <v>5000</v>
+      <c r="F2" s="8">
+        <v>2500</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>27</v>
@@ -2038,8 +2034,8 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8">
-        <v>11000</v>
+      <c r="F3" s="9">
+        <v>5500</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>29</v>
@@ -2064,8 +2060,8 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9">
-        <v>24000</v>
+      <c r="F4" s="8">
+        <v>12000</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>28</v>
@@ -2091,7 +2087,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="9">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>30</v>
@@ -2117,7 +2113,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="9">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>31</v>

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="31920" windowHeight="20460" tabRatio="181"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="181" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
+    <sheet name="promotionItems" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -148,6 +153,130 @@
   </si>
   <si>
     <t>items:dragonChest_3:10,items:dragonChest_2:20,items:dragonChest_1:30,items:woodClass_7:5,items:stoneClass_7:5,items:ironClass_7:5,items:foodClass_7:5,items:coinClass_7:5,items:speedup_3:5,items:speedup_4:5,items:speedup_5:5,items:speedup_6:5,items:speedup_7:5,items:woodBonus_1:5,items:stoneBonus_1:5,items:ironBonus_1:5,items:foodBonus_1:5,items:coinBonus_1:5,items:unitHpBonus_1:5,items:infantryAtkBonus_1:5,items:archerAtkBonus_1:5,items:cavalryAtkBonus_1:5,items:siegeAtkBonus_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古学识特惠</t>
+  </si>
+  <si>
+    <t>promotion_product_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_product_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_product_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_product_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_product_3_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_product_3_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_product_4_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_product_4_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.15000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.20000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.30000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.40000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.80000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.70000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.150000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.200000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富饶之地特惠</t>
+  </si>
+  <si>
+    <t>龙族宝藏特惠</t>
+  </si>
+  <si>
+    <t>好运连连特惠</t>
+  </si>
+  <si>
+    <t>贵族传承特惠</t>
+  </si>
+  <si>
+    <t>英雄之血特惠</t>
+  </si>
+  <si>
+    <t>不死军团特惠</t>
+  </si>
+  <si>
+    <t>金龙币特惠</t>
+  </si>
+  <si>
+    <t>FLOAT_promotionPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonExp_2:5,special:dragonExp_1:10,resource:woodClass_4:10,resource:stoneClass_4:10,resource:ironClass_4:10,resource:foodClass_4:10,resource:woodClass_3:50,resource:stoneClass_3:50,resource:ironClass_3:50,resource:foodClass_3:50,speedup:speedup_1:50,speedup:speedup_2:20,speedup:speedup_3:10</t>
+  </si>
+  <si>
+    <t>resource:woodClass_6:4,resource:stoneClass_6:4,resource:ironClass_6:4,resource:foodClass_6:4,resource:woodClass_4:20,resource:stoneClass_4:20,resource:ironClass_4:20,resource:foodClass_4:20,speedup:speedup_1:50,speedup:speedup_2:20,speedup:speedup_3:20,speedup:speedup_4:10,speedup:speedup_5:5</t>
+  </si>
+  <si>
+    <t>special:dragonChest_3:5,special:dragonChest_2:20,special:dragonChest_1:10,special:dragonExp_1:5,special:sweepScroll:100,buff:masterOfDefender_2:5,speedup:warSpeedupClass_1:20,speedup:warSpeedupClass_2:10,resource:woodClass_6:1,resource:stoneClass_6:1,resource:ironClass_6:1,resource:foodClass_6:1,speedup:speedup_3:20</t>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_5:2,special:chest_4:2,special:chest_3:5,special:chest_2:10,special:chest_1:15,special:sweepScroll:50,resource:woodClass_6:8,resource:stoneClass_6:8,resource:ironClass_6:8,resource:foodClass_6:8,speedup:speedup_4:10,speedup:speedup_5:5,speedup:speedup_6:2</t>
+  </si>
+  <si>
+    <t>special:heroBlood_3:8,special:dragonExp_1:5,special:dragonHp_2:10,buff:marchSpeedBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5,speedup:warSpeedupClass_1:20,speedup:warSpeedupClass_2:10,resource:coinClass_5:10,special:sweepScroll:50</t>
+  </si>
+  <si>
+    <t>special:vipPoint_4:8,special:vipActive_3:30,special:dragonExp_1:10,special:chest_4:5,special:chest_3:5,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,special:sweepScroll:30,speedup:speedup_4:20,speedup:speedup_3:50,speedup:speedup_2:100</t>
+  </si>
+  <si>
+    <t>skeletonWarrior:2400,skeletonArcher:2400,deathKnight:1200,meatWagon:1200,special:dragonChest_3:20,special:dragonChest_2:20,special:dragonExp_2:10,special:dragonExp_1:20,speedup:warSpeedupClass_2:100,resource:woodClass_6:10,resource:stoneClass_6:10,resource:ironClass_6:10,resource:foodClass_6:10</t>
+  </si>
+  <si>
+    <t>resource:gemClass_3:100,resource:gemClass_2:200,resource:coinClass_6:20,resource:woodClass_6:40,resource:stoneClass_6:40,resource:ironClass_6:40,resource:foodClass_6:40,speedup:speedup_8:10,speedup:speedup_7:20,speedup:speedup_6:50,speedup:speedup_5:50,speedup:speedup_4:100,speedup:speedup_3:100</t>
+  </si>
+  <si>
+    <t>FLOAT_existHours</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_normalPrice</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +420,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="586">
+  <cellStyleXfs count="628">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -882,8 +1011,50 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,8 +1086,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="586">
+  <cellStyles count="628">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1212,6 +1392,27 @@
     <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1500,6 +1701,27 @@
     <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1951,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2236,4 +2458,429 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="6"/>
+    <col min="6" max="6" width="20.6640625" style="1"/>
+    <col min="7" max="7" width="16.1640625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="129.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="5"/>
+    <col min="12" max="13" width="20.6640625" style="1"/>
+    <col min="14" max="14" width="20.6640625" style="5"/>
+    <col min="15" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="58" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9.99</v>
+      </c>
+      <c r="E2" s="6">
+        <v>55.55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="8">
+        <v>15000</v>
+      </c>
+      <c r="H2" s="11">
+        <v>455.5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>36</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="65" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9.99</v>
+      </c>
+      <c r="E3" s="6">
+        <v>56.45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="9">
+        <v>20000</v>
+      </c>
+      <c r="H3" s="12">
+        <v>464.5</v>
+      </c>
+      <c r="I3" s="12">
+        <v>24</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="63" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E4" s="6">
+        <v>115.8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="8">
+        <v>30000</v>
+      </c>
+      <c r="H4" s="11">
+        <v>479</v>
+      </c>
+      <c r="I4" s="11">
+        <v>48</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="57" customHeight="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="6">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E5" s="6">
+        <v>116.65</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="9">
+        <v>40000</v>
+      </c>
+      <c r="H5" s="12">
+        <v>483.25</v>
+      </c>
+      <c r="I5" s="12">
+        <v>12</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="74" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6">
+        <v>49.99</v>
+      </c>
+      <c r="E6" s="6">
+        <v>302.60000000000002</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9">
+        <v>80000</v>
+      </c>
+      <c r="H6" s="12">
+        <v>505.2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>24</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="62" customHeight="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="6">
+        <v>49.99</v>
+      </c>
+      <c r="E7" s="6">
+        <v>304.64999999999998</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="9">
+        <v>70000</v>
+      </c>
+      <c r="H7" s="12">
+        <v>509.3</v>
+      </c>
+      <c r="I7" s="12">
+        <v>36</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="78" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="E8" s="6">
+        <v>653.4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="9">
+        <v>150000</v>
+      </c>
+      <c r="H8" s="12">
+        <v>553.4</v>
+      </c>
+      <c r="I8" s="12">
+        <v>12</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="94" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="E9" s="6">
+        <v>660.5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="9">
+        <v>200000</v>
+      </c>
+      <c r="H9" s="12">
+        <v>560.5</v>
+      </c>
+      <c r="I9" s="12">
+        <v>48</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20" customHeight="1">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="20" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="20" customHeight="1">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="20" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="20" customHeight="1">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="20" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="20" customHeight="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="20" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20" customHeight="1">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="20" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20" customHeight="1">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="20" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="20" customHeight="1">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="20" customHeight="1">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="20" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="20" customHeight="1">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="20" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="181" activeTab="1"/>
+    <workbookView xWindow="13500" yWindow="0" windowWidth="23720" windowHeight="15680" tabRatio="181" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -195,88 +195,96 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>com.dragonfall.promotion.40000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富饶之地特惠</t>
+  </si>
+  <si>
+    <t>龙族宝藏特惠</t>
+  </si>
+  <si>
+    <t>好运连连特惠</t>
+  </si>
+  <si>
+    <t>贵族传承特惠</t>
+  </si>
+  <si>
+    <t>英雄之血特惠</t>
+  </si>
+  <si>
+    <t>不死军团特惠</t>
+  </si>
+  <si>
+    <t>金龙币特惠</t>
+  </si>
+  <si>
+    <t>FLOAT_existHours</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_productId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.7500dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.10000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>com.dragonfall.promotion.20000dragoncoins</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>com.dragonfall.promotion.30000dragoncoins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dragonfall.promotion.40000dragoncoins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dragonfall.promotion.80000dragoncoins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dragonfall.promotion.70000dragoncoins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dragonfall.promotion.150000dragoncoins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dragonfall.promotion.200000dragoncoins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富饶之地特惠</t>
-  </si>
-  <si>
-    <t>龙族宝藏特惠</t>
-  </si>
-  <si>
-    <t>好运连连特惠</t>
-  </si>
-  <si>
-    <t>贵族传承特惠</t>
-  </si>
-  <si>
-    <t>英雄之血特惠</t>
-  </si>
-  <si>
-    <t>不死军团特惠</t>
-  </si>
-  <si>
-    <t>金龙币特惠</t>
+    <t>com.dragonfall.promotion.35000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.75000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.100000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FLOAT_promotionPercent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:dragonExp_2:5,special:dragonExp_1:10,resource:woodClass_4:10,resource:stoneClass_4:10,resource:ironClass_4:10,resource:foodClass_4:10,resource:woodClass_3:50,resource:stoneClass_3:50,resource:ironClass_3:50,resource:foodClass_3:50,speedup:speedup_1:50,speedup:speedup_2:20,speedup:speedup_3:10</t>
-  </si>
-  <si>
-    <t>resource:woodClass_6:4,resource:stoneClass_6:4,resource:ironClass_6:4,resource:foodClass_6:4,resource:woodClass_4:20,resource:stoneClass_4:20,resource:ironClass_4:20,resource:foodClass_4:20,speedup:speedup_1:50,speedup:speedup_2:20,speedup:speedup_3:20,speedup:speedup_4:10,speedup:speedup_5:5</t>
-  </si>
-  <si>
-    <t>special:dragonChest_3:5,special:dragonChest_2:20,special:dragonChest_1:10,special:dragonExp_1:5,special:sweepScroll:100,buff:masterOfDefender_2:5,speedup:warSpeedupClass_1:20,speedup:warSpeedupClass_2:10,resource:woodClass_6:1,resource:stoneClass_6:1,resource:ironClass_6:1,resource:foodClass_6:1,speedup:speedup_3:20</t>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_5:2,special:chest_4:2,special:chest_3:5,special:chest_2:10,special:chest_1:15,special:sweepScroll:50,resource:woodClass_6:8,resource:stoneClass_6:8,resource:ironClass_6:8,resource:foodClass_6:8,speedup:speedup_4:10,speedup:speedup_5:5,speedup:speedup_6:2</t>
-  </si>
-  <si>
-    <t>special:heroBlood_3:8,special:dragonExp_1:5,special:dragonHp_2:10,buff:marchSpeedBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5,speedup:warSpeedupClass_1:20,speedup:warSpeedupClass_2:10,resource:coinClass_5:10,special:sweepScroll:50</t>
-  </si>
-  <si>
-    <t>special:vipPoint_4:8,special:vipActive_3:30,special:dragonExp_1:10,special:chest_4:5,special:chest_3:5,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,special:sweepScroll:30,speedup:speedup_4:20,speedup:speedup_3:50,speedup:speedup_2:100</t>
-  </si>
-  <si>
-    <t>skeletonWarrior:2400,skeletonArcher:2400,deathKnight:1200,meatWagon:1200,special:dragonChest_3:20,special:dragonChest_2:20,special:dragonExp_2:10,special:dragonExp_1:20,speedup:warSpeedupClass_2:100,resource:woodClass_6:10,resource:stoneClass_6:10,resource:ironClass_6:10,resource:foodClass_6:10</t>
-  </si>
-  <si>
-    <t>resource:gemClass_3:100,resource:gemClass_2:200,resource:coinClass_6:20,resource:woodClass_6:40,resource:stoneClass_6:40,resource:ironClass_6:40,resource:foodClass_6:40,speedup:speedup_8:10,speedup:speedup_7:20,speedup:speedup_6:50,speedup:speedup_5:50,speedup:speedup_4:100,speedup:speedup_3:100</t>
-  </si>
-  <si>
-    <t>FLOAT_existHours</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_normalPrice</t>
+    <t>special:dragonExp_2:5,special:dragonExp_1:5,resource:woodClass_4:5,resource:stoneClass_4:5,resource:ironClass_4:5,resource:foodClass_4:5,resource:woodClass_3:25,resource:stoneClass_3:25,resource:ironClass_3:25,resource:foodClass_3:25,speedup:speedup_1:25,speedup:speedup_2:10,speedup:speedup_3:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:woodClass_4:10,resource:stoneClass_4:10,resource:ironClass_4:10,resource:foodClass_4:10,speedup:speedup_1:50,speedup:speedup_2:10,speedup:speedup_3:10,speedup:speedup_4:5,speedup:speedup_5:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_3:6,special:dragonChest_2:10,special:dragonChest_1:10,special:dragonExp_1:5,special:sweepScroll:10,buff:masterOfDefender_2:1,speedup:warSpeedupClass_1:10,speedup:warSpeedupClass_2:6,resource:woodClass_6:1,resource:stoneClass_6:1,resource:ironClass_6:1,resource:foodClass_6:1,speedup:speedup_3:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_5:2,special:chest_4:2,special:chest_3:5,special:chest_2:10,special:chest_1:15,special:sweepScroll:25,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,speedup:speedup_4:5,speedup:speedup_5:1,speedup:speedup_6:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:vipPoint_4:5,special:vipActive_3:10,special:dragonExp_1:5,special:chest_4:5,special:chest_3:5,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,special:sweepScroll:15,speedup:speedup_4:10,speedup:speedup_3:20,speedup:speedup_2:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:heroBlood_3:5,special:dragonExp_1:5,special:dragonHp_2:5,buff:marchSpeedBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5,speedup:warSpeedupClass_1:10,speedup:warSpeedupClass_2:20,resource:coinClass_5:10,special:sweepScroll:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonWarrior:2400,skeletonArcher:2400,deathKnight:1200,meatWagon:1200,special:dragonChest_3:5,special:dragonChest_2:10,special:dragonExp_2:10,special:dragonExp_1:10,speedup:warSpeedupClass_2:20,resource:woodClass_6:10,resource:stoneClass_6:10,resource:ironClass_6:10,resource:foodClass_6:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_3:50,special:chest_4:20,special:chest_3:10,resource:coinClass_7:5,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,speedup:speedup_6:20,speedup:speedup_5:50,speedup:speedup_4:100,speedup:speedup_3:300,speedup:speedup_2:300</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2462,28 +2470,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="20.6640625" style="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" style="6"/>
-    <col min="6" max="6" width="20.6640625" style="1"/>
-    <col min="7" max="7" width="16.1640625" style="5" customWidth="1"/>
-    <col min="8" max="9" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="129.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="5"/>
-    <col min="12" max="13" width="20.6640625" style="1"/>
-    <col min="14" max="14" width="20.6640625" style="5"/>
-    <col min="15" max="16384" width="20.6640625" style="1"/>
+    <col min="4" max="4" width="20.6640625" style="6"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="16.1640625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="129.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="5"/>
+    <col min="11" max="12" width="20.6640625" style="1"/>
+    <col min="13" max="13" width="20.6640625" style="5"/>
+    <col min="14" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2491,35 +2499,32 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="58" customHeight="1">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="58" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2527,31 +2532,28 @@
         <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6">
         <v>9.99</v>
       </c>
-      <c r="E2" s="6">
-        <v>55.55</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="8">
-        <v>15000</v>
+      <c r="F2" s="8">
+        <v>7500</v>
+      </c>
+      <c r="G2" s="11">
+        <v>8.06</v>
       </c>
       <c r="H2" s="11">
-        <v>455.5</v>
-      </c>
-      <c r="I2" s="11">
         <v>36</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="65" customHeight="1">
+      <c r="I2" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="65" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2559,31 +2561,28 @@
         <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6">
         <v>9.99</v>
       </c>
-      <c r="E3" s="6">
-        <v>56.45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="9">
-        <v>20000</v>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9">
+        <v>8000</v>
+      </c>
+      <c r="G3" s="12">
+        <v>8.66</v>
       </c>
       <c r="H3" s="12">
-        <v>464.5</v>
-      </c>
-      <c r="I3" s="12">
         <v>24</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="63" customHeight="1">
+      <c r="I3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="63" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2591,31 +2590,28 @@
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6">
         <v>19.989999999999998</v>
       </c>
-      <c r="E4" s="6">
-        <v>115.8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="8">
-        <v>30000</v>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8">
+        <v>15000</v>
+      </c>
+      <c r="G4" s="11">
+        <v>8.4700000000000006</v>
       </c>
       <c r="H4" s="11">
-        <v>479</v>
-      </c>
-      <c r="I4" s="11">
         <v>48</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="57" customHeight="1">
+      <c r="I4" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2623,31 +2619,28 @@
         <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D5" s="6">
         <v>19.989999999999998</v>
       </c>
-      <c r="E5" s="6">
-        <v>116.65</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="9">
-        <v>40000</v>
+      <c r="E5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="12">
+        <v>8.99</v>
       </c>
       <c r="H5" s="12">
-        <v>483.25</v>
-      </c>
-      <c r="I5" s="12">
         <v>12</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="74" customHeight="1">
+      <c r="I5" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="74" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2655,31 +2648,28 @@
         <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6">
         <v>49.99</v>
       </c>
-      <c r="E6" s="6">
-        <v>302.60000000000002</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="9">
-        <v>80000</v>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="9">
+        <v>40000</v>
+      </c>
+      <c r="G6" s="12">
+        <v>8.2200000000000006</v>
       </c>
       <c r="H6" s="12">
-        <v>505.2</v>
-      </c>
-      <c r="I6" s="12">
         <v>24</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="62" customHeight="1">
+      <c r="I6" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="62" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2687,31 +2677,28 @@
         <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D7" s="6">
         <v>49.99</v>
       </c>
-      <c r="E7" s="6">
-        <v>304.64999999999998</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="9">
-        <v>70000</v>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="9">
+        <v>35000</v>
+      </c>
+      <c r="G7" s="12">
+        <v>8.34</v>
       </c>
       <c r="H7" s="12">
-        <v>509.3</v>
-      </c>
-      <c r="I7" s="12">
         <v>36</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="78" customHeight="1">
+      <c r="I7" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="78" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2719,31 +2706,28 @@
         <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6">
         <v>99.99</v>
       </c>
-      <c r="E8" s="6">
-        <v>653.4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="9">
-        <v>150000</v>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="9">
+        <v>75000</v>
+      </c>
+      <c r="G8" s="12">
+        <v>8.68</v>
       </c>
       <c r="H8" s="12">
-        <v>553.4</v>
-      </c>
-      <c r="I8" s="12">
         <v>12</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="94" customHeight="1">
+      <c r="I8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="94" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2751,127 +2735,124 @@
         <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D9" s="6">
         <v>99.99</v>
       </c>
-      <c r="E9" s="6">
-        <v>660.5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="9">
-        <v>200000</v>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="9">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="12">
+        <v>8.42</v>
       </c>
       <c r="H9" s="12">
-        <v>560.5</v>
-      </c>
-      <c r="I9" s="12">
         <v>48</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1">
+      <c r="I9" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1">
+    <row r="11" spans="1:13" ht="20" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="20" customHeight="1">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1">
+    <row r="14" spans="1:13" ht="20" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="20" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="0" windowWidth="23720" windowHeight="15680" tabRatio="181" activeTab="1"/>
+    <workbookView xWindow="-27860" yWindow="3420" windowWidth="27940" windowHeight="15680" tabRatio="181" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -256,35 +256,28 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:dragonExp_2:5,special:dragonExp_1:5,resource:woodClass_4:5,resource:stoneClass_4:5,resource:ironClass_4:5,resource:foodClass_4:5,resource:woodClass_3:25,resource:stoneClass_3:25,resource:ironClass_3:25,resource:foodClass_3:25,speedup:speedup_1:25,speedup:speedup_2:10,speedup:speedup_3:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:woodClass_4:10,resource:stoneClass_4:10,resource:ironClass_4:10,resource:foodClass_4:10,speedup:speedup_1:50,speedup:speedup_2:10,speedup:speedup_3:10,speedup:speedup_4:5,speedup:speedup_5:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_3:6,special:dragonChest_2:10,special:dragonChest_1:10,special:dragonExp_1:5,special:sweepScroll:10,buff:masterOfDefender_2:1,speedup:warSpeedupClass_1:10,speedup:warSpeedupClass_2:6,resource:woodClass_6:1,resource:stoneClass_6:1,resource:ironClass_6:1,resource:foodClass_6:1,speedup:speedup_3:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_5:2,special:chest_4:2,special:chest_3:5,special:chest_2:10,special:chest_1:15,special:sweepScroll:25,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,speedup:speedup_4:5,speedup:speedup_5:1,speedup:speedup_6:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:vipPoint_4:5,special:vipActive_3:10,special:dragonExp_1:5,special:chest_4:5,special:chest_3:5,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,special:sweepScroll:15,speedup:speedup_4:10,speedup:speedup_3:20,speedup:speedup_2:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:heroBlood_3:5,special:dragonExp_1:5,special:dragonHp_2:5,buff:marchSpeedBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5,speedup:warSpeedupClass_1:10,speedup:warSpeedupClass_2:20,resource:coinClass_5:10,special:sweepScroll:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeletonWarrior:2400,skeletonArcher:2400,deathKnight:1200,meatWagon:1200,special:dragonChest_3:5,special:dragonChest_2:10,special:dragonExp_2:10,special:dragonExp_1:10,speedup:warSpeedupClass_2:20,resource:woodClass_6:10,resource:stoneClass_6:10,resource:ironClass_6:10,resource:foodClass_6:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_3:50,special:chest_4:20,special:chest_3:10,resource:coinClass_7:5,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,speedup:speedup_6:20,speedup:speedup_5:50,speedup:speedup_4:100,speedup:speedup_3:300,speedup:speedup_2:300</t>
+    <t>items:dragonExp_2:5,items:dragonExp_1:5,items:woodClass_4:5,items:stoneClass_4:5,items:ironClass_4:5,items:foodClass_4:5,items:woodClass_3:25,items:stoneClass_3:25,items:ironClass_3:25,items:foodClass_3:25,items:speedup_1:25,items:speedup_2:10,items:speedup_3:5</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:5,items:stoneClass_6:5,items:ironClass_6:5,items:foodClass_6:5,items:woodClass_4:10,items:stoneClass_4:10,items:ironClass_4:10,items:foodClass_4:10,items:speedup_1:50,items:speedup_2:10,items:speedup_3:10,items:speedup_4:5,items:speedup_5:1</t>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_5:2,items:chest_4:2,items:chest_3:5,items:chest_2:10,items:chest_1:15,items:sweepScroll:25,items:woodClass_6:5,items:stoneClass_6:5,items:ironClass_6:5,items:foodClass_6:5,items:speedup_4:5,items:speedup_5:1,items:speedup_6:1</t>
+  </si>
+  <si>
+    <t>items:vipPoint_4:5,items:vipActive_3:10,items:dragonExp_1:5,items:chest_4:5,items:chest_3:5,items:woodClass_6:5,items:stoneClass_6:5,items:ironClass_6:5,items:foodClass_6:5,items:sweepScroll:15,items:speedup_4:10,items:speedup_3:20,items:speedup_2:50</t>
+  </si>
+  <si>
+    <t>items:gemClass_3:50,items:chest_4:20,items:chest_3:10,items:coinClass_7:5,items:woodClass_7:5,items:stoneClass_7:5,items:ironClass_7:5,items:foodClass_7:5,items:speedup_6:20,items:speedup_5:50,items:speedup_4:100,items:speedup_3:300,items:speedup_2:300</t>
+  </si>
+  <si>
+    <t>items:dragonChest_3:6,items:dragonChest_2:10,items:dragonChest_1:10,items:dragonExp_1:5,items:sweepScroll:10,items:masterOfDefender_2:1,items:warSpeedupClass_1:10,items:warSpeedupClass_2:6,items:woodClass_6:1,items:stoneClass_6:1,items:ironClass_6:1,items:foodClass_6:1,items:speedup_3:50</t>
+  </si>
+  <si>
+    <t>items:heroBlood_3:5,items:dragonExp_1:5,items:dragonHp_2:5,items:marchSpeedBonus_1:5,items:unitHpBonus_1:5,items:infantryAtkBonus_1:5,items:archerAtkBonus_1:5,items:cavalryAtkBonus_1:5,items:siegeAtkBonus_1:5,items:warSpeedupClass_1:10,items:warSpeedupClass_2:20,items:coinClass_5:10,items:sweepScroll:50</t>
+  </si>
+  <si>
+    <t>soldiers:skeletonWarrior:2400,soldiers:skeletonArcher:2400,soldiers:deathKnight:1200,soldiers:meatWagon:1200,items:dragonChest_3:5,items:dragonChest_2:10,items:dragonExp_2:10,items:dragonExp_1:10,items:warSpeedupClass_2:20,items:woodClass_6:10,items:stoneClass_6:10,items:ironClass_6:10,items:foodClass_6:10</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +421,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="628">
+  <cellStyleXfs count="632">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -443,6 +436,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1104,7 +1101,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="628">
+  <cellStyles count="632">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1421,6 +1418,8 @@
     <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1730,6 +1729,8 @@
     <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2181,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2472,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2608,7 +2609,7 @@
         <v>48</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="57" customHeight="1">
@@ -2637,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="74" customHeight="1">
@@ -2666,7 +2667,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="62" customHeight="1">
@@ -2695,7 +2696,7 @@
         <v>36</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="78" customHeight="1">
@@ -2724,7 +2725,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="94" customHeight="1">
@@ -2753,7 +2754,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27860" yWindow="3420" windowWidth="27940" windowHeight="15680" tabRatio="181" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25040" windowHeight="15600" tabRatio="181" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -421,7 +421,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="632">
+  <cellStyleXfs count="644">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -436,6 +436,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1101,7 +1113,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="632">
+  <cellStyles count="644">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1420,6 +1432,12 @@
     <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1731,6 +1749,12 @@
     <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2182,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2473,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2553,6 +2577,9 @@
       <c r="I2" s="13" t="s">
         <v>59</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="65" customHeight="1">
       <c r="A3" s="1">
@@ -2582,6 +2609,9 @@
       <c r="I3" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="63" customHeight="1">
       <c r="A4" s="1">
@@ -2611,6 +2641,9 @@
       <c r="I4" s="13" t="s">
         <v>64</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="57" customHeight="1">
       <c r="A5" s="2">
@@ -2640,6 +2673,9 @@
       <c r="I5" s="13" t="s">
         <v>61</v>
       </c>
+      <c r="J5" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="74" customHeight="1">
       <c r="A6" s="1">
@@ -2669,6 +2705,9 @@
       <c r="I6" s="13" t="s">
         <v>62</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="62" customHeight="1">
       <c r="A7" s="2">
@@ -2698,6 +2737,9 @@
       <c r="I7" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="J7" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="78" customHeight="1">
       <c r="A8" s="1">
@@ -2727,6 +2769,9 @@
       <c r="I8" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="J8" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="94" customHeight="1">
       <c r="A9" s="2">
@@ -2755,6 +2800,9 @@
       </c>
       <c r="I9" s="13" t="s">
         <v>63</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25040" windowHeight="15600" tabRatio="181" activeTab="1"/>
+    <workbookView xWindow="30760" yWindow="200" windowWidth="29900" windowHeight="16060" tabRatio="181" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -277,7 +277,43 @@
     <t>items:heroBlood_3:5,items:dragonExp_1:5,items:dragonHp_2:5,items:marchSpeedBonus_1:5,items:unitHpBonus_1:5,items:infantryAtkBonus_1:5,items:archerAtkBonus_1:5,items:cavalryAtkBonus_1:5,items:siegeAtkBonus_1:5,items:warSpeedupClass_1:10,items:warSpeedupClass_2:20,items:coinClass_5:10,items:sweepScroll:50</t>
   </si>
   <si>
-    <t>soldiers:skeletonWarrior:2400,soldiers:skeletonArcher:2400,soldiers:deathKnight:1200,soldiers:meatWagon:1200,items:dragonChest_3:5,items:dragonChest_2:10,items:dragonExp_2:10,items:dragonExp_1:10,items:warSpeedupClass_2:20,items:woodClass_6:10,items:stoneClass_6:10,items:ironClass_6:10,items:foodClass_6:10</t>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙币小袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙币福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_3:25,items:chest_4:10,items:chest_3:50,items:coinClass_7:2,items:woodClass_7:2,items:stoneClass_7:2,items:ironClass_7:2,items:foodClass_7:2,items:speedup_6:10,items:speedup_5:30,items:speedup_4:50,items:speedup_3:150,items:speedup_2:150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:2,items:stoneClass_4:2,items:ironClass_4:2,items:foodClass_4:2,items:coinClass_4:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.3000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.promotion.50000dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:skeletonWarrior:3000,soldiers:skeletonArcher:3000,soldiers:deathKnight:1500,soldiers:meatWagon:1500,items:dragonChest_3:5,items:dragonChest_2:10,items:dragonExp_2:10,items:dragonExp_1:10,items:warSpeedupClass_2:30,items:woodClass_6:10,items:stoneClass_6:10,items:ironClass_6:10,items:foodClass_6:10,items:coinClass_6:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_product_5_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_product_5_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +457,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="644">
+  <cellStyleXfs count="670">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1070,8 +1106,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,8 +1174,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="644">
+  <cellStyles count="670">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1438,6 +1503,19 @@
     <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1755,6 +1833,19 @@
     <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2204,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2223,7 +2314,7 @@
     <col min="12" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2243,14 +2334,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="58" customHeight="1">
+    <row r="2" spans="1:13" ht="58" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2273,7 +2364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="65" customHeight="1">
+    <row r="3" spans="1:13" ht="65" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2299,7 +2390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="63" customHeight="1">
+    <row r="4" spans="1:13" ht="63" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2325,7 +2416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57" customHeight="1">
+    <row r="5" spans="1:13" ht="57" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2351,7 +2442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="74" customHeight="1">
+    <row r="6" spans="1:13" ht="74" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2377,109 +2468,118 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+    <row r="7" spans="1:13" ht="20" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="20" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="20" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="20" customHeight="1">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="20" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2497,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2507,9 +2607,9 @@
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="6"/>
     <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="16.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="9" customWidth="1"/>
     <col min="7" max="8" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="129.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="99.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" style="5"/>
     <col min="11" max="12" width="20.6640625" style="1"/>
     <col min="13" max="13" width="20.6640625" style="5"/>
@@ -2532,7 +2632,7 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -2761,13 +2861,13 @@
         <v>75000</v>
       </c>
       <c r="G8" s="12">
-        <v>8.68</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="H8" s="12">
         <v>12</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>26</v>
@@ -2805,13 +2905,69 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="10" spans="1:13" ht="39" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="9">
+        <v>10.18</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="52" customHeight="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="6">
+        <v>49.99</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="9">
+        <v>50000</v>
+      </c>
+      <c r="G11" s="9">
+        <v>8.31</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1">
       <c r="B12" s="6"/>

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30760" yWindow="200" windowWidth="29900" windowHeight="16060" tabRatio="181" activeTab="1"/>
+    <workbookView xWindow="1380" yWindow="820" windowWidth="25600" windowHeight="16060" tabRatio="181" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -314,6 +314,22 @@
   </si>
   <si>
     <t>promotion_product_5_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfall.mc.100dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:1,items:dragonChest_1:5,items:woodClass_5:2,items:stoneClass_5:2,items:ironClass_5:2,items:foodClass_5:2,items:coinClass_5:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2,items:speedup_5:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +473,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="670">
+  <cellStyleXfs count="680">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -472,6 +488,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1178,14 +1204,352 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="670">
+  <cellStyles count="680">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -1516,339 +1880,11 @@
     <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="超链接" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2295,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2314,7 +2350,7 @@
     <col min="12" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2341,7 +2377,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="58" customHeight="1">
+    <row r="2" spans="1:11" ht="58" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2364,7 +2400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="65" customHeight="1">
+    <row r="3" spans="1:11" ht="65" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2390,7 +2426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="63" customHeight="1">
+    <row r="4" spans="1:11" ht="63" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2416,7 +2452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="57" customHeight="1">
+    <row r="5" spans="1:11" ht="57" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2442,7 +2478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="74" customHeight="1">
+    <row r="6" spans="1:11" ht="74" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2468,34 +2504,51 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="65" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9.99</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="20" customHeight="1">
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2597,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/StoreItems.xlsx
+++ b/Dragonfall/gameData/shared/StoreItems.xlsx
@@ -289,10 +289,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:gemClass_3:25,items:chest_4:10,items:chest_3:50,items:coinClass_7:2,items:woodClass_7:2,items:stoneClass_7:2,items:ironClass_7:2,items:foodClass_7:2,items:speedup_6:10,items:speedup_5:30,items:speedup_4:50,items:speedup_3:150,items:speedup_2:150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:woodClass_4:2,items:stoneClass_4:2,items:ironClass_4:2,items:foodClass_4:2,items:coinClass_4:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -330,6 +326,10 @@
   </si>
   <si>
     <t>items:dragonChest_3:1,items:dragonChest_1:5,items:woodClass_5:2,items:stoneClass_5:2,items:ironClass_5:2,items:foodClass_5:2,items:coinClass_5:2,items:speedup_1:2,items:speedup_2:2,items:speedup_3:2,items:speedup_4:2,items:speedup_5:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_3:25,items:chest_4:10,items:chest_3:5,items:coinClass_7:2,items:woodClass_7:2,items:stoneClass_7:2,items:ironClass_7:2,items:foodClass_7:2,items:speedup_6:10,items:speedup_5:30,items:speedup_4:50,items:speedup_3:150,items:speedup_2:150</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2509,22 +2509,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="6">
         <v>9.99</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="9">
         <v>6000</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>24</v>
@@ -2650,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2920,7 +2920,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>26</v>
@@ -2963,10 +2963,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6">
         <v>0.99</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>24</v>
@@ -2995,10 +2995,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="6">
         <v>49.99</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>23</v>
